--- a/part_numbers_db.xlsx
+++ b/part_numbers_db.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,46 @@
           <t>Wireless_Protocol</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>EOL_Status</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Number_of_Alternative_Sources</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Supplier_Financial_Health</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>MTBF_Hours</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Automotive_Grade</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Price_Increase_Pct</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation_Status</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Package_Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -613,9 +653,6 @@
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>18</v>
       </c>
@@ -645,7 +682,6 @@
           <t>VDE-Class C</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -656,20 +692,50 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>90nm</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -692,9 +758,6 @@
           <t>France</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>24</v>
       </c>
@@ -739,20 +802,50 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>40nm</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -775,9 +868,6 @@
           <t>Singapore</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>20</v>
       </c>
@@ -822,20 +912,50 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>singapore</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>130nm</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>400000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -863,8 +983,6 @@
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>12</v>
       </c>
@@ -889,8 +1007,6 @@
       <c r="M5" t="n">
         <v>2.1</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -901,20 +1017,45 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>LGA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -942,8 +1083,6 @@
           <t>China</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>16</v>
       </c>
@@ -973,7 +1112,6 @@
           <t>FCC, CE, TELEC</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -984,20 +1122,50 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>40nm</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>250000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Constrained</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1030,7 +1198,6 @@
           <t>Philippines</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>6</v>
       </c>
@@ -1055,8 +1222,6 @@
       <c r="M7" t="n">
         <v>0.02</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -1067,20 +1232,45 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1113,7 +1303,6 @@
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>10</v>
       </c>
@@ -1138,8 +1327,6 @@
       <c r="M8" t="n">
         <v>1.85</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -1150,20 +1337,50 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>65nm</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>SOT-23</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1191,8 +1408,6 @@
           <t>China</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>14</v>
       </c>
@@ -1217,7 +1432,6 @@
       <c r="M9" t="n">
         <v>3.8</v>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>STM32MP157 MPU</t>
@@ -1233,20 +1447,50 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>korea</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>28nm</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>NRND</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Allocated</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1279,7 +1523,6 @@
           <t>Malaysia</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>8</v>
       </c>
@@ -1309,7 +1552,6 @@
           <t>AEC-Q100</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -1320,20 +1562,55 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>130nm</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1395,8 +1672,6 @@
       <c r="M11" t="n">
         <v>0.15</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>2026-02-08 03:29:59</t>
@@ -1407,20 +1682,35 @@
           <t>2026-02-08 03:29:59</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>800000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1438,10 +1728,6 @@
           <t>MCU</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>0</v>
       </c>
@@ -1460,12 +1746,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>2026-02-08 09:46:32</t>
@@ -1476,20 +1759,40 @@
           <t>2026-02-08 09:46:32</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>90nm</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>QFP</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1507,10 +1810,6 @@
           <t>MCU</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>0</v>
       </c>
@@ -1529,12 +1828,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>2026-02-08 09:59:56</t>
@@ -1545,20 +1841,40 @@
           <t>2026-02-08 09:59:56</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>350nm</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>400000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1576,10 +1892,6 @@
           <t>MCU</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1598,12 +1910,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>2026-02-08 10:00:08</t>
@@ -1614,20 +1923,3956 @@
           <t>2026-02-08 10:00:08</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>40nm</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI14" t="n">
+        <v>250000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>S32K344</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MCU</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>AEC-Q100, ISO 26262 ASIL-D</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>40nm</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NXP (ATMC)</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Embedded</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Baremetal</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>S32G274A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPU</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>26</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>28</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>AEC-Q100, ISO 26262 ASIL-B</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>PMIC PF5024, LPDDR4 MT53E256M32D1DS</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>16nm</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>JCET</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI16" t="n">
+        <v>400000</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Constrained</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>FCBGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PF5024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>24</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>S32G274A MPU</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>130nm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>NXP (ATMC)</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI17" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EYEQ5H</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mobileye (Intel)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPU</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>48</v>
+      </c>
+      <c r="M18" t="n">
+        <v>55</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>AEC-Q100, ISO 26262 ASIL-B</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>LPDDR4 MT53E256M32, NOR Flash MX25U25645G</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>7nm</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>8192</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI18" t="n">
+        <v>350000</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Allocated</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>FCBGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MT53E256M32D1DS-046</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Memory</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>18</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>16</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>S32G274A MPU, EyeQ5H Vision Processor</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:40</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>12nm</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI19" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Constrained</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MX25U25645G</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Macronix</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Memory</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>14</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:40</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>45nm</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Macronix</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Macronix</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI20" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>88Q2112-A2-NNP2I000</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Marvell</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Transceiver</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>24</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:40</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>28nm</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Embedded</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Baremetal</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI21" t="n">
+        <v>450000</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Constrained</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TPS65263-1QRGZRQ1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:41</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>65nm</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI22" t="n">
+        <v>700000</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SMI230</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bosch Sensortec</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:41</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>MEMS</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI23" t="n">
+        <v>350000</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>LGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TJA1463</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Transceiver</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>18</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>16</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:41</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>130nm</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>NXP (ATMC)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI24" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>AEC-Q100</t>
+        </is>
+      </c>
+      <c r="AK24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GCM32ER71E106KA37</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Passive Component</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>AEC-Q200</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:42</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>AEC-Q200</t>
+        </is>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PESD2CAN-U</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nexperia</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Passive Component</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>AEC-Q101</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:36</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:42</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Nexperia</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Nexperia</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Nexperia</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI26" t="n">
+        <v>800000</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>AEC-Q101</t>
+        </is>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>SOT-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>VLS252015HBX-1R0M</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Passive Component</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>AEC-Q200</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:37</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:42</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI27" t="n">
+        <v>900000</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>AEC-Q200</t>
+        </is>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5025781070</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Molex</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:37</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:43</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Molex</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Molex</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI28" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1-2141530-1-AUT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TE Connectivity</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>AEC-Q200</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:37</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:43</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>mexico</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Bosch</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>NRND</t>
+        </is>
+      </c>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>AEC-Q200</t>
+        </is>
+      </c>
+      <c r="AK29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R9A07G044L23GBG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MPU</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>24</v>
+      </c>
+      <c r="M30" t="n">
+        <v>15</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>IEC 62443</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>PMIC RAA215300, DDR3L AS4C256M16D3C</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:37</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:44</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>22nm</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Amkor</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI30" t="n">
+        <v>350000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RAA215300</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>18</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>20</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>IEC 62443</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>R9A07G044L23GBG MPU</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:37</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:44</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>130nm</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI31" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>QFN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>QCA6174A-5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Qualcomm</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Transceiver Wireless</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>18</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>FCC, CE, TELEC</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:37</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:44</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>28nm</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>2048</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>WiFi, BLE</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>NRND</t>
+        </is>
+      </c>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI32" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Constrained</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EC25-E</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quectel</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Transceiver Wireless</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>14</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>16</v>
+      </c>
+      <c r="M33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>CE, FCC, PTCRB</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:38</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:45</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>28nm</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Qualcomm</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Quectel</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>512</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>LTE</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AI33" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MT29F4G08ABAFAWP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Memory</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>16</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>8</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:38</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:45</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>singapore</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>14nm</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Last_Buy</t>
+        </is>
+      </c>
+      <c r="AG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI34" t="n">
+        <v>250000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Allocated</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>TSOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AS4C256M16D3C-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Alliance Memory</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Memory</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>14</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>12</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>R9A07G044L23GBG MPU</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:38</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:45</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>25nm</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>SMIC</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>JCET</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AI35" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>BGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LAN9250</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Microchip</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Transceiver</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>28</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>14</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>IEC 62443</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:38</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:46</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>thailand</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>90nm</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Microchip</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Amkor</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>256</v>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Embedded</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI36" t="n">
+        <v>400000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Allocated</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>QFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SI7021-A20-GM1R</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Silicon Labs</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:38</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:46</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>malaysia</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>180nm</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Silicon Labs</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>EOL</t>
+        </is>
+      </c>
+      <c r="AG37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI37" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>DFN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C2012X7R1H104K</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Passive Component</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:38</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:46</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>philippines</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>TDK</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>0805</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>744043100</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Wurth Elektronik</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Passive Component</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:47</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Wurth</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Wurth</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI39" t="n">
+        <v>800000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10118194-0001LF</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Amphenol</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:47</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Amphenol</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Amphenol</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>USB-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IHLP2525CZER1R0M11</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vishay</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Passive Component</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:39</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:47</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>mexico</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Vishay</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Vishay</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AI41" t="n">
+        <v>700000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1640,7 +5885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,6 +5942,7 @@
       <c r="D2" t="n">
         <v>50000</v>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1720,6 +5966,7 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1743,6 +5990,7 @@
       <c r="D4" t="n">
         <v>10000</v>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1766,6 +6014,7 @@
       <c r="D5" t="n">
         <v>200000</v>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1789,6 +6038,7 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1812,6 +6062,7 @@
       <c r="D7" t="n">
         <v>5000000</v>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1835,6 +6086,7 @@
       <c r="D8" t="n">
         <v>150000</v>
       </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1858,6 +6110,7 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1881,6 +6134,7 @@
       <c r="D10" t="n">
         <v>100000</v>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -1904,9 +6158,658 @@
       <c r="D11" t="n">
         <v>1000000</v>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S32K344</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>S32G274A</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PF5024</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EYEQ5H</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MT53E256M32D1DS-046</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MX25U25645G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>88Q2112-A2-NNP2I000</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TPS65263-1QRGZRQ1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SMI230</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TJA1463</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GCM32ER71E106KA37</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>65</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PESD2CAN-U</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VLS252015HBX-1R0M</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5025781070</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1-2141530-1-AUT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Importato da BOM ADAS_AUTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R9A07G044L23GBG</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RAA215300</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>QCA6174A-5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EC25-E</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MT29F4G08ABAFAWP</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AS4C256M16D3C-12</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LAN9250</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SI7021-A20-GM1R</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>C2012X7R1H104K</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>120</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>744043100</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10118194-0001LF</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IHLP2525CZER1R0M11</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Importato da BOM IOT_INDUST</t>
         </is>
       </c>
     </row>
@@ -1921,7 +6824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1971,6 +6874,46 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADAS_AUTO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Automotive ADAS Manufacturer</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IOT_INDUST</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Industrial IoT Solutions</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-02-14 20:05:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/part_numbers_db.xlsx
+++ b/part_numbers_db.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Part_Numbers" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Client_Data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Clients" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tier2_Suppliers" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Component_Materials" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5942,7 +5944,6 @@
       <c r="D2" t="n">
         <v>50000</v>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -5966,7 +5967,6 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -5990,7 +5990,6 @@
       <c r="D4" t="n">
         <v>10000</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6014,7 +6013,6 @@
       <c r="D5" t="n">
         <v>200000</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6038,7 +6036,6 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6062,7 +6059,6 @@
       <c r="D7" t="n">
         <v>5000000</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6086,7 +6082,6 @@
       <c r="D8" t="n">
         <v>150000</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6110,7 +6105,6 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6134,7 +6128,6 @@
       <c r="D10" t="n">
         <v>100000</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6158,7 +6151,6 @@
       <c r="D11" t="n">
         <v>1000000</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Importato dal template di esempio</t>
@@ -6182,7 +6174,6 @@
       <c r="D12" t="n">
         <v>75000</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6206,7 +6197,6 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6230,7 +6220,6 @@
       <c r="D14" t="n">
         <v>15000</v>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6254,7 +6243,6 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6278,7 +6266,6 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6302,7 +6289,6 @@
       <c r="D17" t="n">
         <v>40000</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6326,7 +6312,6 @@
       <c r="D18" t="n">
         <v>25000</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6350,7 +6335,6 @@
       <c r="D19" t="n">
         <v>80000</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6374,7 +6358,6 @@
       <c r="D20" t="n">
         <v>30000</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6398,7 +6381,6 @@
       <c r="D21" t="n">
         <v>60000</v>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6422,7 +6404,6 @@
       <c r="D22" t="n">
         <v>5000000</v>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6446,7 +6427,6 @@
       <c r="D23" t="n">
         <v>500000</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6470,7 +6450,6 @@
       <c r="D24" t="n">
         <v>800000</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6494,7 +6473,6 @@
       <c r="D25" t="n">
         <v>200000</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6518,7 +6496,6 @@
       <c r="D26" t="n">
         <v>200000</v>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>Importato da BOM ADAS_AUTO</t>
@@ -6542,7 +6519,6 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6566,7 +6542,6 @@
       <c r="D28" t="n">
         <v>20000</v>
       </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6590,7 +6565,6 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6614,7 +6588,6 @@
       <c r="D30" t="n">
         <v>15000</v>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6638,7 +6611,6 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6662,7 +6634,6 @@
       <c r="D32" t="n">
         <v>30000</v>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6686,7 +6657,6 @@
       <c r="D33" t="n">
         <v>8000</v>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6710,7 +6680,6 @@
       <c r="D34" t="n">
         <v>50000</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6734,7 +6703,6 @@
       <c r="D35" t="n">
         <v>10000000</v>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6758,7 +6726,6 @@
       <c r="D36" t="n">
         <v>150000</v>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6782,7 +6749,6 @@
       <c r="D37" t="n">
         <v>100000</v>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6806,7 +6772,6 @@
       <c r="D38" t="n">
         <v>300000</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>Importato da BOM IOT_INDUST</t>
@@ -6917,4 +6882,141 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tier2_Supplier_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tier2_Supplier_Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Material_Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Material_Key</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Market_Share_Pct</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Criticality</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Substitutability</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Created_at</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Updated_at</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Part_Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Material_Key</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Material_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tier2_Supplier_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Custom_Concentration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Custom_Country</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Created_at</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>